--- a/ActiTimeAutomationTestData/0001_MasterTestSuite/0001_MasterTestSuite.xlsx
+++ b/ActiTimeAutomationTestData/0001_MasterTestSuite/0001_MasterTestSuite.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ActiTimeAutomationTestData\0001_MasterTestSuite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TechnocratsBatch6\ActiTimeAutomation\ActiTimeAutomationTestData\0001_MasterTestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestSuite" sheetId="1" r:id="rId1"/>
@@ -87,27 +87,27 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Anil - Personal View" guid="{1266FE57-1CCD-4C39-AC5E-5DD4E2972A2D}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="4"/>
+    <customWorkbookView name="Ashutosh Rathi - Personal View" guid="{F457A7D8-0583-40D6-9A41-30A2589F5DD2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="3"/>
+    <customWorkbookView name="o1389 - Personal View" guid="{30CE1C81-1903-43EA-8A17-FE6E3A31FD10}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1360" windowHeight="534" activeSheetId="3"/>
+    <customWorkbookView name="O1390 - Personal View" guid="{EDD10680-545E-4226-8514-44326F972BD3}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="3"/>
+    <customWorkbookView name="o1517 - Personal View" guid="{175AACF7-915F-47B6-867D-4DD4E9FDDB9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1276" windowHeight="770" activeSheetId="1"/>
+    <customWorkbookView name="o1806 - Personal View" guid="{7DD4BF32-9023-4F08-BA14-4EB59406EB82}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1362" windowHeight="534" activeSheetId="1"/>
+    <customWorkbookView name="O0636 - Personal View" guid="{A309B7CB-255E-431A-A517-4EF2AC68AB93}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1362" windowHeight="534" activeSheetId="1"/>
+    <customWorkbookView name="O1388 - Personal View" guid="{01B61FFB-C39A-417B-9D09-D2919AB55E4F}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="794" activeSheetId="3"/>
+    <customWorkbookView name="O0327 - Personal View" guid="{A120C6BE-8102-4A04-BE5C-5330117D3198}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1362" windowHeight="534" activeSheetId="3"/>
+    <customWorkbookView name="O1805 - Personal View" guid="{DFC25B04-9BB5-4B22-A561-6AF18D689322}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1276" windowHeight="790" activeSheetId="1"/>
+    <customWorkbookView name="o1807 - Personal View" guid="{DD75D781-57BD-4FAA-94CB-1870E9D11324}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="2"/>
+    <customWorkbookView name="Pradnya Kadam - Personal View" guid="{16A66105-D445-417D-A94A-58494F759363}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="3"/>
+    <customWorkbookView name="Sayali Udugade - Personal View" guid="{48AE6FF3-7178-4143-A74A-1100309397E4}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
+    <customWorkbookView name="Rohit Dagade - Personal View" guid="{4379B2DE-4371-4F6F-B048-F7472A441B77}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
     <customWorkbookView name="Anil Rathod - Personal View" guid="{A00FCAE2-AE6B-49CF-A253-9C9C8342FA02}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
-    <customWorkbookView name="Rohit Dagade - Personal View" guid="{4379B2DE-4371-4F6F-B048-F7472A441B77}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
-    <customWorkbookView name="Sayali Udugade - Personal View" guid="{48AE6FF3-7178-4143-A74A-1100309397E4}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
-    <customWorkbookView name="Pradnya Kadam - Personal View" guid="{16A66105-D445-417D-A94A-58494F759363}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="3"/>
-    <customWorkbookView name="o1807 - Personal View" guid="{DD75D781-57BD-4FAA-94CB-1870E9D11324}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="2"/>
-    <customWorkbookView name="O1805 - Personal View" guid="{DFC25B04-9BB5-4B22-A561-6AF18D689322}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1276" windowHeight="790" activeSheetId="1"/>
-    <customWorkbookView name="O0327 - Personal View" guid="{A120C6BE-8102-4A04-BE5C-5330117D3198}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1362" windowHeight="534" activeSheetId="3"/>
-    <customWorkbookView name="O1388 - Personal View" guid="{01B61FFB-C39A-417B-9D09-D2919AB55E4F}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1280" windowHeight="794" activeSheetId="3"/>
-    <customWorkbookView name="O0636 - Personal View" guid="{A309B7CB-255E-431A-A517-4EF2AC68AB93}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1362" windowHeight="534" activeSheetId="1"/>
-    <customWorkbookView name="o1806 - Personal View" guid="{7DD4BF32-9023-4F08-BA14-4EB59406EB82}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1362" windowHeight="534" activeSheetId="1"/>
-    <customWorkbookView name="o1517 - Personal View" guid="{175AACF7-915F-47B6-867D-4DD4E9FDDB9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1276" windowHeight="770" activeSheetId="1"/>
-    <customWorkbookView name="O1390 - Personal View" guid="{EDD10680-545E-4226-8514-44326F972BD3}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="3"/>
-    <customWorkbookView name="o1389 - Personal View" guid="{30CE1C81-1903-43EA-8A17-FE6E3A31FD10}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1360" windowHeight="534" activeSheetId="3"/>
-    <customWorkbookView name="Ashutosh Rathi - Personal View" guid="{F457A7D8-0583-40D6-9A41-30A2589F5DD2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="3"/>
-    <customWorkbookView name="Anil - Personal View" guid="{1266FE57-1CCD-4C39-AC5E-5DD4E2972A2D}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="4"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
   <si>
     <t>ExecuteFlag</t>
   </si>
@@ -236,6 +236,15 @@
   </si>
   <si>
     <t>chrome</t>
+  </si>
+  <si>
+    <t>TaskCreate</t>
+  </si>
+  <si>
+    <t>This script will Create Task in Actitime application</t>
+  </si>
+  <si>
+    <t>This script will Create Task in actitime application</t>
   </si>
 </sst>
 </file>
@@ -711,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,81 +798,81 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{1266FE57-1CCD-4C39-AC5E-5DD4E2972A2D}">
+      <selection activeCell="A2" sqref="A2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{F457A7D8-0583-40D6-9A41-30A2589F5DD2}" showPageBreaks="1">
+      <selection activeCell="B3" sqref="B3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{30CE1C81-1903-43EA-8A17-FE6E3A31FD10}">
+      <selection activeCell="E24" sqref="E24"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{EDD10680-545E-4226-8514-44326F972BD3}">
+      <selection activeCell="B3" sqref="B3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+    </customSheetView>
+    <customSheetView guid="{175AACF7-915F-47B6-867D-4DD4E9FDDB9B}">
+      <selection activeCell="E2" sqref="E2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+    </customSheetView>
+    <customSheetView guid="{7DD4BF32-9023-4F08-BA14-4EB59406EB82}">
+      <selection activeCell="A18" sqref="A18"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+    </customSheetView>
+    <customSheetView guid="{A309B7CB-255E-431A-A517-4EF2AC68AB93}" topLeftCell="B1">
+      <selection activeCell="H12" sqref="H12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+    </customSheetView>
+    <customSheetView guid="{01B61FFB-C39A-417B-9D09-D2919AB55E4F}" topLeftCell="B1">
+      <selection activeCell="E9" sqref="E9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+    </customSheetView>
+    <customSheetView guid="{A120C6BE-8102-4A04-BE5C-5330117D3198}" topLeftCell="B1">
+      <selection activeCell="E9" sqref="E9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+    </customSheetView>
+    <customSheetView guid="{DFC25B04-9BB5-4B22-A561-6AF18D689322}">
+      <selection activeCell="A2" sqref="A2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+    </customSheetView>
+    <customSheetView guid="{DD75D781-57BD-4FAA-94CB-1870E9D11324}" topLeftCell="A19">
+      <selection activeCell="E24" sqref="E24"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+    </customSheetView>
+    <customSheetView guid="{16A66105-D445-417D-A94A-58494F759363}">
+      <selection activeCell="B3" sqref="B3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+    </customSheetView>
+    <customSheetView guid="{48AE6FF3-7178-4143-A74A-1100309397E4}">
+      <selection activeCell="J1" sqref="J1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+    </customSheetView>
+    <customSheetView guid="{4379B2DE-4371-4F6F-B048-F7472A441B77}">
+      <selection activeCell="J11" sqref="J11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+    </customSheetView>
     <customSheetView guid="{A00FCAE2-AE6B-49CF-A253-9C9C8342FA02}" showPageBreaks="1" showAutoFilter="1" topLeftCell="A27">
       <selection activeCell="K44" sqref="K44"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
       <autoFilter ref="A1:M44"/>
-    </customSheetView>
-    <customSheetView guid="{4379B2DE-4371-4F6F-B048-F7472A441B77}">
-      <selection activeCell="J11" sqref="J11"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{48AE6FF3-7178-4143-A74A-1100309397E4}">
-      <selection activeCell="J1" sqref="J1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-    </customSheetView>
-    <customSheetView guid="{16A66105-D445-417D-A94A-58494F759363}">
-      <selection activeCell="B3" sqref="B3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-    </customSheetView>
-    <customSheetView guid="{DD75D781-57BD-4FAA-94CB-1870E9D11324}" topLeftCell="A19">
-      <selection activeCell="E24" sqref="E24"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-    </customSheetView>
-    <customSheetView guid="{DFC25B04-9BB5-4B22-A561-6AF18D689322}">
-      <selection activeCell="A2" sqref="A2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
-    </customSheetView>
-    <customSheetView guid="{A120C6BE-8102-4A04-BE5C-5330117D3198}" topLeftCell="B1">
-      <selection activeCell="E9" sqref="E9"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
-    </customSheetView>
-    <customSheetView guid="{01B61FFB-C39A-417B-9D09-D2919AB55E4F}" topLeftCell="B1">
-      <selection activeCell="E9" sqref="E9"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
-    </customSheetView>
-    <customSheetView guid="{A309B7CB-255E-431A-A517-4EF2AC68AB93}" topLeftCell="B1">
-      <selection activeCell="H12" sqref="H12"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
-    </customSheetView>
-    <customSheetView guid="{7DD4BF32-9023-4F08-BA14-4EB59406EB82}">
-      <selection activeCell="A18" sqref="A18"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
-    </customSheetView>
-    <customSheetView guid="{175AACF7-915F-47B6-867D-4DD4E9FDDB9B}">
-      <selection activeCell="E2" sqref="E2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
-    </customSheetView>
-    <customSheetView guid="{EDD10680-545E-4226-8514-44326F972BD3}">
-      <selection activeCell="B3" sqref="B3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
-    </customSheetView>
-    <customSheetView guid="{30CE1C81-1903-43EA-8A17-FE6E3A31FD10}">
-      <selection activeCell="E24" sqref="E24"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
-    </customSheetView>
-    <customSheetView guid="{F457A7D8-0583-40D6-9A41-30A2589F5DD2}" showPageBreaks="1">
-      <selection activeCell="B3" sqref="B3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
-    </customSheetView>
-    <customSheetView guid="{1266FE57-1CCD-4C39-AC5E-5DD4E2972A2D}">
-      <selection activeCell="A2" sqref="A2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="C1:C1048576">
@@ -879,7 +888,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,9 +931,15 @@
       <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -936,70 +951,70 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{1266FE57-1CCD-4C39-AC5E-5DD4E2972A2D}">
+      <selection sqref="A1:XFD1048576"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{F457A7D8-0583-40D6-9A41-30A2589F5DD2}" showPageBreaks="1" topLeftCell="A103">
+      <selection activeCell="C115" sqref="C115"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{30CE1C81-1903-43EA-8A17-FE6E3A31FD10}" topLeftCell="A88">
+      <selection activeCell="B110" sqref="B110"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{EDD10680-545E-4226-8514-44326F972BD3}" topLeftCell="A93">
+      <selection activeCell="B102" sqref="B102"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{175AACF7-915F-47B6-867D-4DD4E9FDDB9B}" topLeftCell="A28">
+      <selection activeCell="C29" sqref="C29"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{7DD4BF32-9023-4F08-BA14-4EB59406EB82}" topLeftCell="A73">
+      <selection activeCell="C80" sqref="C80"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A309B7CB-255E-431A-A517-4EF2AC68AB93}" topLeftCell="A34">
+      <selection activeCell="B50" sqref="B50"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{01B61FFB-C39A-417B-9D09-D2919AB55E4F}">
+      <selection activeCell="B2" sqref="B2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A120C6BE-8102-4A04-BE5C-5330117D3198}">
+      <selection activeCell="B2" sqref="B2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{DFC25B04-9BB5-4B22-A561-6AF18D689322}" topLeftCell="A68">
+      <selection activeCell="B78" sqref="B78"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{DD75D781-57BD-4FAA-94CB-1870E9D11324}" topLeftCell="A98">
+      <selection activeCell="B102" sqref="B102"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{16A66105-D445-417D-A94A-58494F759363}" topLeftCell="A103">
+      <selection activeCell="C115" sqref="C115"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId4"/>
+    </customSheetView>
+    <customSheetView guid="{48AE6FF3-7178-4143-A74A-1100309397E4}" topLeftCell="A103">
+      <selection activeCell="A121" sqref="A121:D121"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId5"/>
+    </customSheetView>
+    <customSheetView guid="{4379B2DE-4371-4F6F-B048-F7472A441B77}" topLeftCell="A103">
+      <selection activeCell="A121" sqref="A121:D121"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId6"/>
+    </customSheetView>
     <customSheetView guid="{A00FCAE2-AE6B-49CF-A253-9C9C8342FA02}" showPageBreaks="1" topLeftCell="A112">
       <selection activeCell="D122" sqref="D122"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{4379B2DE-4371-4F6F-B048-F7472A441B77}" topLeftCell="A103">
-      <selection activeCell="A121" sqref="A121:D121"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{48AE6FF3-7178-4143-A74A-1100309397E4}" topLeftCell="A103">
-      <selection activeCell="A121" sqref="A121:D121"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId3"/>
-    </customSheetView>
-    <customSheetView guid="{16A66105-D445-417D-A94A-58494F759363}" topLeftCell="A103">
-      <selection activeCell="C115" sqref="C115"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId4"/>
-    </customSheetView>
-    <customSheetView guid="{DD75D781-57BD-4FAA-94CB-1870E9D11324}" topLeftCell="A98">
-      <selection activeCell="B102" sqref="B102"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{DFC25B04-9BB5-4B22-A561-6AF18D689322}" topLeftCell="A68">
-      <selection activeCell="B78" sqref="B78"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{A120C6BE-8102-4A04-BE5C-5330117D3198}">
-      <selection activeCell="B2" sqref="B2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{01B61FFB-C39A-417B-9D09-D2919AB55E4F}">
-      <selection activeCell="B2" sqref="B2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{A309B7CB-255E-431A-A517-4EF2AC68AB93}" topLeftCell="A34">
-      <selection activeCell="B50" sqref="B50"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{7DD4BF32-9023-4F08-BA14-4EB59406EB82}" topLeftCell="A73">
-      <selection activeCell="C80" sqref="C80"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{175AACF7-915F-47B6-867D-4DD4E9FDDB9B}" topLeftCell="A28">
-      <selection activeCell="C29" sqref="C29"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId5"/>
-    </customSheetView>
-    <customSheetView guid="{EDD10680-545E-4226-8514-44326F972BD3}" topLeftCell="A93">
-      <selection activeCell="B102" sqref="B102"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{30CE1C81-1903-43EA-8A17-FE6E3A31FD10}" topLeftCell="A88">
-      <selection activeCell="B110" sqref="B110"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{F457A7D8-0583-40D6-9A41-30A2589F5DD2}" showPageBreaks="1" topLeftCell="A103">
-      <selection activeCell="C115" sqref="C115"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId6"/>
-    </customSheetView>
-    <customSheetView guid="{1266FE57-1CCD-4C39-AC5E-5DD4E2972A2D}">
-      <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId7"/>
     </customSheetView>
@@ -1011,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,6 +1097,20 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{1266FE57-1CCD-4C39-AC5E-5DD4E2972A2D}">
@@ -1100,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1163,7 @@
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -1151,7 +1180,7 @@
       <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -1168,7 +1197,7 @@
       <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -1185,28 +1214,52 @@
       <c r="A5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -1228,73 +1281,73 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{1266FE57-1CCD-4C39-AC5E-5DD4E2972A2D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{F457A7D8-0583-40D6-9A41-30A2589F5DD2}" showPageBreaks="1">
+      <selection activeCell="A9" sqref="A9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{30CE1C81-1903-43EA-8A17-FE6E3A31FD10}" topLeftCell="A1147">
+      <selection activeCell="D1169" sqref="D1169"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{EDD10680-545E-4226-8514-44326F972BD3}" topLeftCell="A1131">
+      <selection activeCell="B1135" sqref="B1135"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{175AACF7-915F-47B6-867D-4DD4E9FDDB9B}" topLeftCell="A745">
+      <selection activeCell="C766" sqref="C766"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId4"/>
+    </customSheetView>
+    <customSheetView guid="{7DD4BF32-9023-4F08-BA14-4EB59406EB82}" topLeftCell="A881">
+      <selection activeCell="B907" sqref="B907"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A309B7CB-255E-431A-A517-4EF2AC68AB93}" topLeftCell="A481">
+      <selection activeCell="I497" sqref="I497"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{01B61FFB-C39A-417B-9D09-D2919AB55E4F}">
+      <selection activeCell="J19" sqref="J19"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{A120C6BE-8102-4A04-BE5C-5330117D3198}">
+      <selection activeCell="C8" sqref="C8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{DFC25B04-9BB5-4B22-A561-6AF18D689322}" topLeftCell="A888">
+      <selection activeCell="B909" sqref="B909"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId5"/>
+    </customSheetView>
+    <customSheetView guid="{DD75D781-57BD-4FAA-94CB-1870E9D11324}" showAutoFilter="1" topLeftCell="A1120">
+      <selection activeCell="B1133" sqref="B1133"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId6"/>
+      <autoFilter ref="A1:E1127"/>
+    </customSheetView>
+    <customSheetView guid="{16A66105-D445-417D-A94A-58494F759363}" topLeftCell="A1398">
+      <selection activeCell="C1412" sqref="C1412"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId7"/>
+    </customSheetView>
+    <customSheetView guid="{48AE6FF3-7178-4143-A74A-1100309397E4}" topLeftCell="A1031">
+      <selection activeCell="E1060" sqref="E1060"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId8"/>
+    </customSheetView>
+    <customSheetView guid="{4379B2DE-4371-4F6F-B048-F7472A441B77}" topLeftCell="A1031">
+      <selection activeCell="E1060" sqref="E1060"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId9"/>
+    </customSheetView>
     <customSheetView guid="{A00FCAE2-AE6B-49CF-A253-9C9C8342FA02}" showPageBreaks="1" topLeftCell="A1474">
       <selection activeCell="D1482" sqref="D1482"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{4379B2DE-4371-4F6F-B048-F7472A441B77}" topLeftCell="A1031">
-      <selection activeCell="E1060" sqref="E1060"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{48AE6FF3-7178-4143-A74A-1100309397E4}" topLeftCell="A1031">
-      <selection activeCell="E1060" sqref="E1060"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId3"/>
-    </customSheetView>
-    <customSheetView guid="{16A66105-D445-417D-A94A-58494F759363}" topLeftCell="A1398">
-      <selection activeCell="C1412" sqref="C1412"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId4"/>
-    </customSheetView>
-    <customSheetView guid="{DD75D781-57BD-4FAA-94CB-1870E9D11324}" showAutoFilter="1" topLeftCell="A1120">
-      <selection activeCell="B1133" sqref="B1133"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId5"/>
-      <autoFilter ref="A1:E1127"/>
-    </customSheetView>
-    <customSheetView guid="{DFC25B04-9BB5-4B22-A561-6AF18D689322}" topLeftCell="A888">
-      <selection activeCell="B909" sqref="B909"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId6"/>
-    </customSheetView>
-    <customSheetView guid="{A120C6BE-8102-4A04-BE5C-5330117D3198}">
-      <selection activeCell="C8" sqref="C8"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{01B61FFB-C39A-417B-9D09-D2919AB55E4F}">
-      <selection activeCell="J19" sqref="J19"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{A309B7CB-255E-431A-A517-4EF2AC68AB93}" topLeftCell="A481">
-      <selection activeCell="I497" sqref="I497"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{7DD4BF32-9023-4F08-BA14-4EB59406EB82}" topLeftCell="A881">
-      <selection activeCell="B907" sqref="B907"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{175AACF7-915F-47B6-867D-4DD4E9FDDB9B}" topLeftCell="A745">
-      <selection activeCell="C766" sqref="C766"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId7"/>
-    </customSheetView>
-    <customSheetView guid="{EDD10680-545E-4226-8514-44326F972BD3}" topLeftCell="A1131">
-      <selection activeCell="B1135" sqref="B1135"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{30CE1C81-1903-43EA-8A17-FE6E3A31FD10}" topLeftCell="A1147">
-      <selection activeCell="D1169" sqref="D1169"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId8"/>
-    </customSheetView>
-    <customSheetView guid="{F457A7D8-0583-40D6-9A41-30A2589F5DD2}" showPageBreaks="1">
-      <selection activeCell="A9" sqref="A9"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId9"/>
-    </customSheetView>
-    <customSheetView guid="{1266FE57-1CCD-4C39-AC5E-5DD4E2972A2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId10"/>
     </customSheetView>
